--- a/SHSchool.Behavior/Resources/學生獎勵記錄明細.xlsx
+++ b/SHSchool.Behavior/Resources/學生獎勵記錄明細.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyJob_Desktop\Github\SHBehavior\SHSchool.Behavior\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -120,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -129,11 +129,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -143,33 +160,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -182,110 +173,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -294,11 +182,24 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -309,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,61 +233,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +578,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -709,7 +592,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -718,60 +601,60 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="17" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="7" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">

--- a/SHSchool.Behavior/Resources/學生獎勵記錄明細.xlsx
+++ b/SHSchool.Behavior/Resources/學生獎勵記錄明細.xlsx
@@ -235,41 +235,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +578,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -605,46 +605,46 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="19" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -654,8 +654,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
